--- a/pm/market.xlsx
+++ b/pm/market.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clinton/Dropbox/application_data/GitHub/ec_data/pm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Dropbox\syncd_r_data\portfoliomngt\ course\lectures\07_equity_&amp;_factors\lecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA5A37A-4652-454C-9E7F-EA0CC7644EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB8DF0B-FF74-4990-8433-F6BC7A824E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="-1820" windowWidth="25600" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="52" windowWidth="21600" windowHeight="12233" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query Sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="514">
   <si>
     <t>[Information Version]</t>
   </si>
@@ -1524,6 +1524,45 @@
   </si>
   <si>
     <t>2022/06</t>
+  </si>
+  <si>
+    <t>2022/07</t>
+  </si>
+  <si>
+    <t>2022/08</t>
+  </si>
+  <si>
+    <t>2022/09</t>
+  </si>
+  <si>
+    <t>2022/10</t>
+  </si>
+  <si>
+    <t>2022/11</t>
+  </si>
+  <si>
+    <t>2022/12</t>
+  </si>
+  <si>
+    <t>2023/01</t>
+  </si>
+  <si>
+    <t>2023/02</t>
+  </si>
+  <si>
+    <t>2023/03</t>
+  </si>
+  <si>
+    <t>2023/04</t>
+  </si>
+  <si>
+    <t>2023/05</t>
+  </si>
+  <si>
+    <t>2023/06</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1613,47 +1652,47 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1975,98 +2014,98 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="501" width="10" style="1" customWidth="1"/>
     <col min="502" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2074,7 +2113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -2082,7 +2121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -2090,7 +2129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -2098,7 +2137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -2109,12 +2148,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2122,17 +2161,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -2140,7 +2179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2148,7 +2187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -2156,12 +2195,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2169,7 +2208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -2177,7 +2216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -2185,7 +2224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -2193,12 +2232,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -2206,7 +2245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -2214,17 +2253,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -2232,12 +2271,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2245,7 +2284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
@@ -2253,7 +2292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -2261,12 +2300,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -2274,7 +2313,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
@@ -2282,7 +2321,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
@@ -2290,12 +2329,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -2303,7 +2342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -2311,7 +2350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
@@ -2319,12 +2358,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
@@ -2332,17 +2371,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>74</v>
       </c>
@@ -2353,7 +2392,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>77</v>
       </c>
@@ -2361,7 +2400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
@@ -2369,12 +2408,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>81</v>
       </c>
@@ -2385,12 +2424,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>12</v>
       </c>
@@ -2407,7 +2446,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>13</v>
       </c>
@@ -2424,12 +2463,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>91</v>
       </c>
@@ -2437,7 +2476,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>15</v>
       </c>
@@ -2493,7 +2532,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>91</v>
       </c>
@@ -2504,7 +2543,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>15</v>
       </c>
@@ -2560,12 +2599,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>107</v>
       </c>
@@ -2573,7 +2612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>108</v>
       </c>
@@ -2581,7 +2620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>109</v>
       </c>
@@ -2598,16 +2637,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:D407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="I414" sqref="I414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="10" customWidth="1"/>
@@ -2616,7 +2655,7 @@
     <col min="6" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
@@ -2626,7 +2665,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
@@ -2636,7 +2675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -2646,7 +2685,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -2656,7 +2695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -2666,1147 +2705,1337 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D6" s="7">
         <v>37188.949999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D7" s="7">
         <v>34591.99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D8" s="7">
         <v>29980.45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D9" s="8">
         <v>29584.799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D10" s="8">
         <v>33130.800000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D11" s="7">
         <v>31940.240000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D12" s="7">
         <v>31035.66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D13" s="7">
         <v>25978.37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D14" s="8">
         <v>20983.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D15" s="8">
         <v>25194.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D16" s="7">
         <v>22454.63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D17" s="7">
         <v>23848.71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D18" s="7">
         <v>23293.14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D19" s="7">
         <v>26409.22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D20" s="7">
         <v>26292.04</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D21" s="7">
         <v>26111.25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D22" s="7">
         <v>25789.62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D23" s="7">
         <v>23290.959999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D24" s="7">
         <v>24120.75</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D25" s="7">
         <v>22335.87</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D26" s="7">
         <v>23916.44</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D27" s="7">
         <v>25222.28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D28" s="7">
         <v>22687.35</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D29" s="7">
         <v>22983.77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D30" s="7">
         <v>22023.05</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D31" s="7">
         <v>21338.81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D32" s="7">
         <v>19345.95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D33" s="7">
         <v>17390.71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D34" s="7">
         <v>18347.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D35" s="7">
         <v>15951.73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D36" s="7">
         <v>15910.28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D37" s="7">
         <v>18061.12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D38" s="7">
         <v>17399.080000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D39" s="8">
         <v>16767.400000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D40" s="7">
         <v>17683.650000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D41" s="7">
         <v>16924.95</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D42" s="7">
         <v>17023.78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D43" s="7">
         <v>16953.349999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D44" s="7">
         <v>18591.45</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D45" s="7">
         <v>20919.18</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D46" s="7">
         <v>20552.349999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D47" s="9">
         <v>19590</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D48" s="7">
         <v>20380.14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D49" s="8">
         <v>21026.6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D50" s="7">
         <v>20105.71</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D51" s="7">
         <v>19702.97</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D52" s="7">
         <v>16406.54</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D53" s="7">
         <v>17417.240000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="6"/>
+      <c r="C54" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D54" s="7">
         <v>20229.12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D55" s="8">
         <v>19997.2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="6"/>
+      <c r="C56" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D56" s="7">
         <v>19111.919999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D57" s="7">
         <v>19725.25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D58" s="7">
         <v>20973.59</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D59" s="7">
         <v>20643.93</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="6"/>
+      <c r="C60" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D60" s="7">
         <v>20449.39</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D61" s="7">
         <v>20628.53</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D62" s="7">
         <v>19563.810000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D63" s="8">
         <v>19989.599999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="6"/>
+      <c r="C64" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D64" s="7">
         <v>19075.62</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D65" s="7">
         <v>19723.060000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D66" s="7">
         <v>18649.82</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="6"/>
+      <c r="C67" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D67" s="7">
         <v>17053.43</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="6"/>
+      <c r="C68" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D68" s="7">
         <v>16139.95</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="6"/>
+      <c r="C69" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D69" s="7">
         <v>16806.75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D70" s="7">
         <v>15436.79</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D71" s="8">
         <v>14517.4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C72" s="6"/>
+      <c r="C72" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D72" s="7">
         <v>16677.53</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C73" s="6"/>
+      <c r="C73" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D73" s="7">
         <v>18117.22</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="6"/>
+      <c r="C74" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D74" s="7">
         <v>17913.060000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D75" s="7">
         <v>17654.64</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C76" s="6"/>
+      <c r="C76" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D76" s="7">
         <v>18744.419999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D77" s="7">
         <v>19868.150000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C78" s="6"/>
+      <c r="C78" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D78" s="7">
         <v>20812.740000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C79" s="6"/>
+      <c r="C79" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D79" s="7">
         <v>20125.37</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C80" s="6"/>
+      <c r="C80" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D80" s="7">
         <v>21406.85</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D81" s="8">
         <v>22041.3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C82" s="6"/>
+      <c r="C82" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D82" s="7">
         <v>21956.19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D83" s="7">
         <v>22530.75</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D84" s="7">
         <v>20692.830000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="6"/>
+      <c r="C85" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D85" s="8">
         <v>20166.900000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D86" s="8">
         <v>21556.400000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D87" s="7">
         <v>20466.86</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D88" s="7">
         <v>21020.36</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D89" s="7">
         <v>19361.349999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D90" s="7">
         <v>18330.009999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D91" s="9">
         <v>18557</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D92" s="8">
         <v>18003.400000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D93" s="7">
         <v>19151.12</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D94" s="7">
         <v>20068.810000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="6"/>
+      <c r="C95" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D95" s="7">
         <v>20604.96</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C96" s="6"/>
+      <c r="C96" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D96" s="7">
         <v>20331.43</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D97" s="7">
         <v>18229.419999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C98" s="6"/>
+      <c r="C98" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D98" s="7">
         <v>17887.71</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C99" s="6"/>
+      <c r="C99" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D99" s="7">
         <v>16458.939999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C100" s="6"/>
+      <c r="C100" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D100" s="7">
         <v>16636.259999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
@@ -3820,7 +4049,7 @@
         <v>15258.74</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>94</v>
       </c>
@@ -3834,7 +4063,7 @@
         <v>16628.47</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>94</v>
       </c>
@@ -3848,7 +4077,7 @@
         <v>16831.669999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>94</v>
       </c>
@@ -3862,7 +4091,7 @@
         <v>16527.169999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>94</v>
       </c>
@@ -3876,7 +4105,7 @@
         <v>15641.26</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>94</v>
       </c>
@@ -3890,7 +4119,7 @@
         <v>15670.78</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>94</v>
       </c>
@@ -3904,7 +4133,7 @@
         <v>15830.27</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>94</v>
       </c>
@@ -3918,7 +4147,7 @@
         <v>16378.97</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>94</v>
       </c>
@@ -3932,7 +4161,7 @@
         <v>14107.89</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>94</v>
       </c>
@@ -3946,7 +4175,7 @@
         <v>13406.39</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>94</v>
       </c>
@@ -3960,7 +4189,7 @@
         <v>13564.51</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>94</v>
       </c>
@@ -3974,7 +4203,7 @@
         <v>14883.7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>94</v>
       </c>
@@ -3988,7 +4217,7 @@
         <v>13842.17</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>94</v>
       </c>
@@ -4002,7 +4231,7 @@
         <v>14499.25</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>94</v>
       </c>
@@ -4016,7 +4245,7 @@
         <v>14367.54</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>94</v>
       </c>
@@ -4030,7 +4259,7 @@
         <v>15836.59</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>94</v>
       </c>
@@ -4044,7 +4273,7 @@
         <v>16701.53</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>94</v>
       </c>
@@ -4058,7 +4287,7 @@
         <v>16111.65</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>94</v>
       </c>
@@ -4072,7 +4301,7 @@
         <v>17529.740000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>94</v>
       </c>
@@ -4086,7 +4315,7 @@
         <v>17861.86</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>94</v>
       </c>
@@ -4100,7 +4329,7 @@
         <v>17436.560000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>94</v>
       </c>
@@ -4114,7 +4343,7 @@
         <v>17605.46</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>94</v>
       </c>
@@ -4128,7 +4357,7 @@
         <v>17942.080000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>94</v>
       </c>
@@ -4142,7 +4371,7 @@
         <v>18558.23</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>94</v>
       </c>
@@ -4156,7 +4385,7 @@
         <v>18934.34</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>94</v>
       </c>
@@ -4170,7 +4399,7 @@
         <v>19539.7</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>94</v>
       </c>
@@ -4184,7 +4413,7 @@
         <v>19959.52</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>94</v>
       </c>
@@ -4198,7 +4427,7 @@
         <v>20337.32</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>94</v>
       </c>
@@ -4212,7 +4441,7 @@
         <v>17973.7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>94</v>
       </c>
@@ -4226,7 +4455,7 @@
         <v>16332.45</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>94</v>
       </c>
@@ -4240,7 +4469,7 @@
         <v>17411.05</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>94</v>
       </c>
@@ -4254,7 +4483,7 @@
         <v>15727.49</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>94</v>
       </c>
@@ -4268,7 +4497,7 @@
         <v>16861.259999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>94</v>
       </c>
@@ -4282,7 +4511,7 @@
         <v>15747.26</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>94</v>
       </c>
@@ -4296,7 +4525,7 @@
         <v>14539.6</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>94</v>
       </c>
@@ -4310,7 +4539,7 @@
         <v>14648.51</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>94</v>
       </c>
@@ -4324,7 +4553,7 @@
         <v>13785.69</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>94</v>
       </c>
@@ -4338,7 +4567,7 @@
         <v>13843.55</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>94</v>
       </c>
@@ -4352,7 +4581,7 @@
         <v>12883.54</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>94</v>
       </c>
@@ -4366,7 +4595,7 @@
         <v>12999.7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>94</v>
       </c>
@@ -4380,7 +4609,7 @@
         <v>13934.32</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>94</v>
       </c>
@@ -4394,7 +4623,7 @@
         <v>13262.14</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>94</v>
       </c>
@@ -4408,7 +4637,7 @@
         <v>12969.05</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>94</v>
       </c>
@@ -4422,7 +4651,7 @@
         <v>11860.77</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>94</v>
       </c>
@@ -4436,7 +4665,7 @@
         <v>10713.51</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>94</v>
       </c>
@@ -4450,7 +4679,7 @@
         <v>9774.68</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>94</v>
       </c>
@@ -4464,7 +4693,7 @@
         <v>10366.34</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>94</v>
       </c>
@@ -4478,7 +4707,7 @@
         <v>10697.44</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>94</v>
       </c>
@@ -4492,7 +4721,7 @@
         <v>10542.62</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>94</v>
       </c>
@@ -4506,7 +4735,7 @@
         <v>9997.7999999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>94</v>
       </c>
@@ -4520,7 +4749,7 @@
         <v>10587.83</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>94</v>
       </c>
@@ -4534,7 +4763,7 @@
         <v>11024.94</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>94</v>
       </c>
@@ -4548,7 +4777,7 @@
         <v>11492.54</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>94</v>
       </c>
@@ -4562,7 +4791,7 @@
         <v>11763.7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>94</v>
       </c>
@@ -4576,7 +4805,7 @@
         <v>10621.84</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>94</v>
       </c>
@@ -4590,7 +4819,7 @@
         <v>9877.94</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>94</v>
       </c>
@@ -4604,7 +4833,7 @@
         <v>9619.2999999999993</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>94</v>
       </c>
@@ -4618,7 +4847,7 @@
         <v>9383.2900000000009</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>94</v>
       </c>
@@ -4632,7 +4861,7 @@
         <v>8640.48</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>94</v>
       </c>
@@ -4646,7 +4875,7 @@
         <v>9215.56</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>94</v>
       </c>
@@ -4660,7 +4889,7 @@
         <v>8578.9500000000007</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>94</v>
       </c>
@@ -4674,7 +4903,7 @@
         <v>8339.94</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>94</v>
       </c>
@@ -4688,7 +4917,7 @@
         <v>8363.0400000000009</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>94</v>
       </c>
@@ -4702,7 +4931,7 @@
         <v>7972.71</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>94</v>
       </c>
@@ -4716,7 +4945,7 @@
         <v>7831.42</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>94</v>
       </c>
@@ -4730,7 +4959,7 @@
         <v>8424.51</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>94</v>
       </c>
@@ -4744,7 +4973,7 @@
         <v>9083.11</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>94</v>
       </c>
@@ -4758,7 +4987,7 @@
         <v>9563.2099999999991</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>94</v>
       </c>
@@ -4772,7 +5001,7 @@
         <v>10343.549999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>94</v>
       </c>
@@ -4786,7 +5015,7 @@
         <v>10219.049999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>94</v>
       </c>
@@ -4800,7 +5029,7 @@
         <v>10559.59</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>94</v>
       </c>
@@ -4814,7 +5043,7 @@
         <v>10100.57</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>94</v>
       </c>
@@ -4828,7 +5057,7 @@
         <v>10676.64</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>94</v>
       </c>
@@ -4842,7 +5071,7 @@
         <v>10783.61</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>94</v>
       </c>
@@ -4856,7 +5085,7 @@
         <v>11041.92</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>94</v>
       </c>
@@ -4870,7 +5099,7 @@
         <v>11715.39</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>94</v>
       </c>
@@ -4884,7 +5113,7 @@
         <v>11761.79</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>94</v>
       </c>
@@ -4898,7 +5127,7 @@
         <v>11236.37</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>94</v>
       </c>
@@ -4912,7 +5141,7 @@
         <v>11858.87</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>94</v>
       </c>
@@ -4926,7 +5155,7 @@
         <v>11325.78</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>94</v>
       </c>
@@ -4940,7 +5169,7 @@
         <v>11081.79</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>94</v>
       </c>
@@ -4954,7 +5183,7 @@
         <v>10823.57</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>94</v>
       </c>
@@ -4968,7 +5197,7 @@
         <v>10771.42</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>94</v>
       </c>
@@ -4982,7 +5211,7 @@
         <v>10899.25</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>94</v>
       </c>
@@ -4996,7 +5225,7 @@
         <v>11488.76</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>94</v>
       </c>
@@ -5010,7 +5239,7 @@
         <v>11387.59</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>94</v>
       </c>
@@ -5024,7 +5253,7 @@
         <v>11740.6</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>94</v>
       </c>
@@ -5038,7 +5267,7 @@
         <v>11668.95</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>94</v>
       </c>
@@ -5052,7 +5281,7 @@
         <v>11008.9</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>94</v>
       </c>
@@ -5066,7 +5295,7 @@
         <v>11276.59</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>94</v>
       </c>
@@ -5080,7 +5309,7 @@
         <v>11584.01</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>94</v>
       </c>
@@ -5094,7 +5323,7 @@
         <v>11899.6</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>94</v>
       </c>
@@ -5108,7 +5337,7 @@
         <v>12413.6</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>94</v>
       </c>
@@ -5122,7 +5351,7 @@
         <v>13574.3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>94</v>
       </c>
@@ -5136,7 +5365,7 @@
         <v>13606.5</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>94</v>
       </c>
@@ -5150,7 +5379,7 @@
         <v>14872.15</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>94</v>
       </c>
@@ -5164,7 +5393,7 @@
         <v>16111.43</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>94</v>
       </c>
@@ -5178,7 +5407,7 @@
         <v>16649.82</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>94</v>
       </c>
@@ -5192,7 +5421,7 @@
         <v>16205.43</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>94</v>
       </c>
@@ -5206,7 +5435,7 @@
         <v>17059.66</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>94</v>
       </c>
@@ -5220,7 +5449,7 @@
         <v>16906.23</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>94</v>
       </c>
@@ -5234,7 +5463,7 @@
         <v>15467.33</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>94</v>
       </c>
@@ -5248,7 +5477,7 @@
         <v>15505.18</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>94</v>
       </c>
@@ -5262,7 +5491,7 @@
         <v>15456.81</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>94</v>
       </c>
@@ -5276,7 +5505,7 @@
         <v>16140.76</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>94</v>
       </c>
@@ -5290,7 +5519,7 @@
         <v>16127.58</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>94</v>
       </c>
@@ -5304,7 +5533,7 @@
         <v>16399.39</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>94</v>
       </c>
@@ -5318,7 +5547,7 @@
         <v>16274.33</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>94</v>
       </c>
@@ -5332,7 +5561,7 @@
         <v>17225.830000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>94</v>
       </c>
@@ -5346,7 +5575,7 @@
         <v>17383.419999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>94</v>
       </c>
@@ -5360,7 +5589,7 @@
         <v>17604.12</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>94</v>
       </c>
@@ -5374,7 +5603,7 @@
         <v>17287.650000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>94</v>
       </c>
@@ -5388,7 +5617,7 @@
         <v>17400.41</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>94</v>
       </c>
@@ -5402,7 +5631,7 @@
         <v>17875.75</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>94</v>
       </c>
@@ -5416,7 +5645,7 @@
         <v>18138.36</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>94</v>
       </c>
@@ -5430,7 +5659,7 @@
         <v>17248.89</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>94</v>
       </c>
@@ -5444,7 +5673,7 @@
         <v>16569.09</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>94</v>
       </c>
@@ -5458,7 +5687,7 @@
         <v>16785.689999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>94</v>
       </c>
@@ -5472,7 +5701,7 @@
         <v>16737.63</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>94</v>
       </c>
@@ -5486,7 +5715,7 @@
         <v>15680.67</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>94</v>
       </c>
@@ -5500,7 +5729,7 @@
         <v>15307.78</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>94</v>
       </c>
@@ -5514,7 +5743,7 @@
         <v>13592.47</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>94</v>
       </c>
@@ -5528,7 +5757,7 @@
         <v>13603.02</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>94</v>
       </c>
@@ -5542,7 +5771,7 @@
         <v>12525.54</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>94</v>
       </c>
@@ -5556,7 +5785,7 @@
         <v>13849.99</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>94</v>
       </c>
@@ -5570,7 +5799,7 @@
         <v>14338.54</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>94</v>
       </c>
@@ -5584,7 +5813,7 @@
         <v>13481.38</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>94</v>
       </c>
@@ -5598,7 +5827,7 @@
         <v>13376.81</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>94</v>
       </c>
@@ -5612,7 +5841,7 @@
         <v>13072.87</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>94</v>
       </c>
@@ -5626,7 +5855,7 @@
         <v>11259.86</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>94</v>
       </c>
@@ -5640,7 +5869,7 @@
         <v>8576.98</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>94</v>
       </c>
@@ -5654,7 +5883,7 @@
         <v>8512.27</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>94</v>
       </c>
@@ -5668,7 +5897,7 @@
         <v>8859.56</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>94</v>
       </c>
@@ -5682,7 +5911,7 @@
         <v>7994.05</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>94</v>
       </c>
@@ -5696,7 +5925,7 @@
         <v>7568.42</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>94</v>
       </c>
@@ -5710,7 +5939,7 @@
         <v>8109.53</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>94</v>
       </c>
@@ -5724,7 +5953,7 @@
         <v>8828.26</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>94</v>
       </c>
@@ -5738,7 +5967,7 @@
         <v>9522.5</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>94</v>
       </c>
@@ -5752,7 +5981,7 @@
         <v>9958.44</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>94</v>
       </c>
@@ -5766,7 +5995,7 @@
         <v>10356.83</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>94</v>
       </c>
@@ -5780,7 +6009,7 @@
         <v>10492.53</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>94</v>
       </c>
@@ -5794,7 +6023,7 @@
         <v>10133.23</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>94</v>
       </c>
@@ -5808,7 +6037,7 @@
         <v>10034.74</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>94</v>
       </c>
@@ -5822,7 +6051,7 @@
         <v>9345.5499999999993</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>94</v>
       </c>
@@ -5836,7 +6065,7 @@
         <v>10546.44</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>94</v>
       </c>
@@ -5850,7 +6079,7 @@
         <v>10198.040000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>94</v>
       </c>
@@ -5864,7 +6093,7 @@
         <v>10126.030000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>94</v>
       </c>
@@ -5878,7 +6107,7 @@
         <v>11089.94</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>94</v>
       </c>
@@ -5892,7 +6121,7 @@
         <v>11057.4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>94</v>
       </c>
@@ -5906,7 +6135,7 @@
         <v>9768.7000000000007</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>94</v>
       </c>
@@ -5920,7 +6149,7 @@
         <v>9382.64</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>94</v>
       </c>
@@ -5934,7 +6163,7 @@
         <v>9537.2999999999993</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>94</v>
       </c>
@@ -5948,7 +6177,7 @@
         <v>8824.06</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>94</v>
       </c>
@@ -5962,7 +6191,7 @@
         <v>9369.35</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>94</v>
       </c>
@@ -5976,7 +6205,7 @@
         <v>9202.4500000000007</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>94</v>
       </c>
@@ -5990,7 +6219,7 @@
         <v>9937.0400000000009</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>94</v>
       </c>
@@ -6004,7 +6233,7 @@
         <v>10228.92</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>94</v>
       </c>
@@ -6018,7 +6247,7 @@
         <v>10237.92</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>94</v>
       </c>
@@ -6032,7 +6261,7 @@
         <v>10624.09</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>94</v>
       </c>
@@ -6046,7 +6275,7 @@
         <v>9755.1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>94</v>
       </c>
@@ -6060,7 +6289,7 @@
         <v>9849.74</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>94</v>
       </c>
@@ -6074,7 +6303,7 @@
         <v>9693.73</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>94</v>
       </c>
@@ -6088,7 +6317,7 @@
         <v>9816.09</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>94</v>
       </c>
@@ -6102,7 +6331,7 @@
         <v>9833.0300000000007</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>94</v>
       </c>
@@ -6116,7 +6345,7 @@
         <v>8955.2000000000007</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>94</v>
       </c>
@@ -6130,7 +6359,7 @@
         <v>8700.2900000000009</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>94</v>
       </c>
@@ -6144,7 +6373,7 @@
         <v>8988.39</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>94</v>
       </c>
@@ -6158,7 +6387,7 @@
         <v>8434.61</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>94</v>
       </c>
@@ -6172,7 +6401,7 @@
         <v>8455.35</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>94</v>
       </c>
@@ -6186,7 +6415,7 @@
         <v>8802.51</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>94</v>
       </c>
@@ -6200,7 +6429,7 @@
         <v>9723.24</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>94</v>
       </c>
@@ -6214,7 +6443,7 @@
         <v>10083.56</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>94</v>
       </c>
@@ -6228,7 +6457,7 @@
         <v>9520.89</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>94</v>
       </c>
@@ -6242,7 +6471,7 @@
         <v>8542.73</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>94</v>
       </c>
@@ -6256,7 +6485,7 @@
         <v>9006.7800000000007</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>94</v>
       </c>
@@ -6270,7 +6499,7 @@
         <v>8695.06</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>94</v>
       </c>
@@ -6284,7 +6513,7 @@
         <v>8839.91</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>94</v>
       </c>
@@ -6298,7 +6527,7 @@
         <v>8870.16</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>94</v>
       </c>
@@ -6312,7 +6541,7 @@
         <v>8928.2900000000009</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>94</v>
       </c>
@@ -6326,7 +6555,7 @@
         <v>9446.01</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>94</v>
       </c>
@@ -6340,7 +6569,7 @@
         <v>10395.18</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>94</v>
       </c>
@@ -6354,7 +6583,7 @@
         <v>11138.66</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>94</v>
       </c>
@@ -6368,7 +6597,7 @@
         <v>11559.36</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>94</v>
       </c>
@@ -6382,7 +6611,7 @@
         <v>12397.91</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>94</v>
       </c>
@@ -6396,7 +6625,7 @@
         <v>13860.86</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>94</v>
       </c>
@@ -6410,7 +6639,7 @@
         <v>13774.54</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>94</v>
       </c>
@@ -6424,7 +6653,7 @@
         <v>13677.32</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>94</v>
       </c>
@@ -6438,7 +6667,7 @@
         <v>13668.32</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>94</v>
       </c>
@@ -6452,7 +6681,7 @@
         <v>13388.86</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>94</v>
       </c>
@@ -6466,7 +6695,7 @@
         <v>14455.8</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>94</v>
       </c>
@@ -6480,7 +6709,7 @@
         <v>14327.94</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>94</v>
       </c>
@@ -6494,7 +6723,7 @@
         <v>15661.87</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>94</v>
       </c>
@@ -6508,7 +6737,7 @@
         <v>16291.31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>94</v>
       </c>
@@ -6522,7 +6751,7 @@
         <v>14914.53</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>94</v>
       </c>
@@ -6536,7 +6765,7 @@
         <v>14841.07</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>94</v>
       </c>
@@ -6550,7 +6779,7 @@
         <v>14827.83</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>94</v>
       </c>
@@ -6564,7 +6793,7 @@
         <v>14304.11</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>94</v>
       </c>
@@ -6578,7 +6807,7 @@
         <v>14632.38</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>94</v>
       </c>
@@ -6592,7 +6821,7 @@
         <v>15162.1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>94</v>
       </c>
@@ -6606,7 +6835,7 @@
         <v>15620.77</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>94</v>
       </c>
@@ -6620,7 +6849,7 @@
         <v>15424.59</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>94</v>
       </c>
@@ -6634,7 +6863,7 @@
         <v>16173.52</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>94</v>
       </c>
@@ -6648,7 +6877,7 @@
         <v>16413.759999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>94</v>
       </c>
@@ -6662,7 +6891,7 @@
         <v>17459.849999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>94</v>
       </c>
@@ -6676,7 +6905,7 @@
         <v>17450.77</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>94</v>
       </c>
@@ -6690,7 +6919,7 @@
         <v>17674.39</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>94</v>
       </c>
@@ -6704,7 +6933,7 @@
         <v>18797.939999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>94</v>
       </c>
@@ -6718,7 +6947,7 @@
         <v>19206.990000000002</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>94</v>
       </c>
@@ -6732,7 +6961,7 @@
         <v>19520.009999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>94</v>
       </c>
@@ -6746,7 +6975,7 @@
         <v>20563.150000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>94</v>
       </c>
@@ -6760,7 +6989,7 @@
         <v>20235.73</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>94</v>
       </c>
@@ -6774,7 +7003,7 @@
         <v>20585.240000000002</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>94</v>
       </c>
@@ -6788,7 +7017,7 @@
         <v>18890.48</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>94</v>
       </c>
@@ -6802,7 +7031,7 @@
         <v>17388.150000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>94</v>
       </c>
@@ -6816,7 +7045,7 @@
         <v>19083.099999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>94</v>
       </c>
@@ -6830,7 +7059,7 @@
         <v>19747.47</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>94</v>
       </c>
@@ -6844,7 +7073,7 @@
         <v>19033.71</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>94</v>
       </c>
@@ -6858,7 +7087,7 @@
         <v>17518.3</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>94</v>
       </c>
@@ -6872,7 +7101,7 @@
         <v>16026.76</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>94</v>
       </c>
@@ -6886,7 +7115,7 @@
         <v>16758.669999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>94</v>
       </c>
@@ -6900,7 +7129,7 @@
         <v>16666.05</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>94</v>
       </c>
@@ -6914,7 +7143,7 @@
         <v>17234.98</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>94</v>
       </c>
@@ -6928,7 +7157,7 @@
         <v>15575.92</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>94</v>
       </c>
@@ -6942,7 +7171,7 @@
         <v>16569.27</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>94</v>
       </c>
@@ -6956,7 +7185,7 @@
         <v>16887.400000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>94</v>
       </c>
@@ -6970,7 +7199,7 @@
         <v>16449.84</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>94</v>
       </c>
@@ -6984,7 +7213,7 @@
         <v>17425.02</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>94</v>
       </c>
@@ -6998,7 +7227,7 @@
         <v>18308.48</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>94</v>
       </c>
@@ -7012,7 +7241,7 @@
         <v>19114.37</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>94</v>
       </c>
@@ -7026,7 +7255,7 @@
         <v>19041.34</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>94</v>
       </c>
@@ -7040,7 +7269,7 @@
         <v>19118.990000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>94</v>
       </c>
@@ -7054,7 +7283,7 @@
         <v>18909.259999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>94</v>
       </c>
@@ -7068,7 +7297,7 @@
         <v>19196.740000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>94</v>
       </c>
@@ -7082,7 +7311,7 @@
         <v>19650.57</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>94</v>
       </c>
@@ -7096,7 +7325,7 @@
         <v>20033.43</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>94</v>
       </c>
@@ -7110,7 +7339,7 @@
         <v>19925.18</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>94</v>
       </c>
@@ -7124,7 +7353,7 @@
         <v>19646.240000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>94</v>
       </c>
@@ -7138,7 +7367,7 @@
         <v>20356.28</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>94</v>
       </c>
@@ -7152,7 +7381,7 @@
         <v>22011.61</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>94</v>
       </c>
@@ -7166,7 +7395,7 @@
         <v>22724.959999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>94</v>
       </c>
@@ -7180,7 +7409,7 @@
         <v>22764.94</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>94</v>
       </c>
@@ -7194,7 +7423,7 @@
         <v>23098.29</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>94</v>
       </c>
@@ -7208,7 +7437,7 @@
         <v>22068.240000000002</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>94</v>
       </c>
@@ -7222,7 +7451,7 @@
         <v>21454.3</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>94</v>
       </c>
@@ -7236,7 +7465,7 @@
         <v>22467.87</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>94</v>
       </c>
@@ -7250,7 +7479,7 @@
         <v>22201.82</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>94</v>
       </c>
@@ -7264,7 +7493,7 @@
         <v>22304.51</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>94</v>
       </c>
@@ -7278,7 +7507,7 @@
         <v>22553.72</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>94</v>
       </c>
@@ -7292,7 +7521,7 @@
         <v>22865.15</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>94</v>
       </c>
@@ -7306,7 +7535,7 @@
         <v>24120.04</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>94</v>
       </c>
@@ -7320,7 +7549,7 @@
         <v>21920.46</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>94</v>
       </c>
@@ -7334,7 +7563,7 @@
         <v>22351.06</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>94</v>
       </c>
@@ -7348,7 +7577,7 @@
         <v>20014.77</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>94</v>
       </c>
@@ -7362,7 +7591,7 @@
         <v>20773.490000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>94</v>
       </c>
@@ -7376,7 +7605,7 @@
         <v>21385.16</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>94</v>
       </c>
@@ -7390,7 +7619,7 @@
         <v>21205.81</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>94</v>
       </c>
@@ -7404,7 +7633,7 @@
         <v>22258.73</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>94</v>
       </c>
@@ -7418,7 +7647,7 @@
         <v>20601.189999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>94</v>
       </c>
@@ -7432,7 +7661,7 @@
         <v>21275.919999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>94</v>
       </c>
@@ -7446,7 +7675,7 @@
         <v>21521.53</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>94</v>
       </c>
@@ -7460,7 +7689,7 @@
         <v>20704.37</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>94</v>
       </c>
@@ -7474,7 +7703,7 @@
         <v>21755.84</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>94</v>
       </c>
@@ -7488,7 +7717,7 @@
         <v>22927.040000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>94</v>
       </c>
@@ -7502,7 +7731,7 @@
         <v>23293.91</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>94</v>
       </c>
@@ -7516,7 +7745,7 @@
         <v>23656.62</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>94</v>
       </c>
@@ -7530,7 +7759,7 @@
         <v>23205.18</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>94</v>
       </c>
@@ -7544,7 +7773,7 @@
         <v>21142.959999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>94</v>
       </c>
@@ -7558,7 +7787,7 @@
         <v>18917.009999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>94</v>
       </c>
@@ -7572,7 +7801,7 @@
         <v>20193.689999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>94</v>
       </c>
@@ -7586,7 +7815,7 @@
         <v>21877.89</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>94</v>
       </c>
@@ -7600,7 +7829,7 @@
         <v>22288.14</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>94</v>
       </c>
@@ -7614,7 +7843,7 @@
         <v>21710</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>94</v>
       </c>
@@ -7628,7 +7857,7 @@
         <v>23139.759999999998</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>94</v>
       </c>
@@ -7642,7 +7871,7 @@
         <v>23185.119999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>94</v>
       </c>
@@ -7656,7 +7885,7 @@
         <v>22977.13</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>94</v>
       </c>
@@ -7670,7 +7899,7 @@
         <v>26433.62</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>94</v>
       </c>
@@ -7684,7 +7913,7 @@
         <v>27444.17</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>94</v>
       </c>
@@ -7698,7 +7927,7 @@
         <v>27663.39</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>94</v>
       </c>
@@ -7712,7 +7941,7 @@
         <v>28966.01</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>94</v>
       </c>
@@ -7726,7 +7955,7 @@
         <v>29178.799999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>94</v>
       </c>
@@ -7740,7 +7969,7 @@
         <v>28812.63</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>94</v>
       </c>
@@ -7754,7 +7983,7 @@
         <v>28860.080000000002</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>94</v>
       </c>
@@ -7768,7 +7997,7 @@
         <v>28791.53</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>94</v>
       </c>
@@ -7782,7 +8011,7 @@
         <v>27283.59</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>94</v>
       </c>
@@ -7796,7 +8025,7 @@
         <v>28089.54</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>94</v>
       </c>
@@ -7810,7 +8039,7 @@
         <v>29452.66</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>94</v>
       </c>
@@ -7824,7 +8053,7 @@
         <v>28892.69</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>94</v>
       </c>
@@ -7838,7 +8067,7 @@
         <v>27821.759999999998</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>94</v>
       </c>
@@ -7852,7 +8081,7 @@
         <v>28791.71</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>94</v>
       </c>
@@ -7866,7 +8095,7 @@
         <v>27001.98</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>94</v>
       </c>
@@ -7880,7 +8109,7 @@
         <v>26526.82</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>94</v>
       </c>
@@ -7894,7 +8123,7 @@
         <v>27821.43</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>94</v>
       </c>
@@ -7908,7 +8137,7 @@
         <v>26847.9</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>94</v>
       </c>
@@ -7922,7 +8151,7 @@
         <v>27279.8</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>94</v>
       </c>
@@ -7930,10 +8159,178 @@
         <v>500</v>
       </c>
       <c r="C395" s="7">
-        <v>1866.72</v>
+        <v>1870.82</v>
       </c>
       <c r="D395" s="7">
-        <v>26491.97</v>
+        <v>26393.040000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B396" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C396" s="10">
+        <v>1940.31</v>
+      </c>
+      <c r="D396" s="10">
+        <v>27801.64</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C397" s="10">
+        <v>1963.16</v>
+      </c>
+      <c r="D397" s="10">
+        <v>28091.53</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C398" s="10">
+        <v>1835.94</v>
+      </c>
+      <c r="D398" s="10">
+        <v>25937.21</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C399" s="10">
+        <v>1929.43</v>
+      </c>
+      <c r="D399" s="10">
+        <v>27587.46</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C400" s="10">
+        <v>1985.57</v>
+      </c>
+      <c r="D400" s="10">
+        <v>27968.99</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C401" s="10">
+        <v>1891.71</v>
+      </c>
+      <c r="D401" s="10">
+        <v>26094.5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C402" s="10">
+        <v>1975.27</v>
+      </c>
+      <c r="D402" s="10">
+        <v>27327.11</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C403" s="10">
+        <v>1993.28</v>
+      </c>
+      <c r="D403" s="10">
+        <v>27445.56</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C404" s="10">
+        <v>2003.5</v>
+      </c>
+      <c r="D404" s="10">
+        <v>28041.48</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C405" s="10">
+        <v>2057.48</v>
+      </c>
+      <c r="D405" s="10">
+        <v>28856.44</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C406" s="10">
+        <v>2130.63</v>
+      </c>
+      <c r="D406" s="10">
+        <v>30887.88</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C407" s="10">
+        <v>2288.6</v>
+      </c>
+      <c r="D407" s="10">
+        <v>33189.040000000001</v>
       </c>
     </row>
   </sheetData>
